--- a/A01708072_Tabla comparación.xlsx
+++ b/A01708072_Tabla comparación.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Escuela/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Escuela/Desktop/Profesor Alfredo/Actividad 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D656A9-35F3-DF43-BDF4-48F761177D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94EF4E2-09B8-7D45-973E-A0958E8EBE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>México</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realizaron dos filtros, el primero filtraba los valores de Private room y el segundo filtro de Entire home/apt. Considerando esto y observando los resultados el coeficiente de correlación,  se puede decir que todos los coeficientes  tanto de Estados Unidos como para México estan por debajo del 50 porciento de correlación. Lo que nos quiere decir que existe poca relación entre las dos variables. Hablando especificamente de México, dentro de las variables   "review_scores_location vs review_scores_cleanlines" del filtro 1, es donde se encuentra el valor de correlación más alto con 41.78%, aún así este no alcanza al 50%, lo que no es favorable. Por otro lado, para Estados Unidos, el valor de correlación más alto es para la variable review_scores_location vs review_scores_cleanliness del filtro 2, con un porcentaje del 30.31%. Esto nos puede decir que en esta variable México , especificamente utilizando los valores  de Private Room,  tuvo una mayor correlación. </t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,6 +272,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,8 +533,8 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -561,34 +579,34 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="25" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="27"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -598,38 +616,38 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="19" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22" t="s">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="24"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="27"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -814,7 +832,7 @@
       <c r="F6" s="5">
         <v>0.155761764517345</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>0.41789172406409703</v>
       </c>
       <c r="H6" s="5">
@@ -868,7 +886,7 @@
       <c r="X6" s="5">
         <v>9.1249799396980399E-2</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="10">
         <v>0.30314395473726902</v>
       </c>
       <c r="Z6" s="5">
@@ -948,10 +966,23 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="15">
+    <row r="9" spans="1:31" ht="15" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -968,10 +999,21 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="15">
+    <row r="10" spans="1:31" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -988,10 +1030,21 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="15">
+    <row r="11" spans="1:31" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1010,6 +1063,18 @@
     </row>
     <row r="12" spans="1:31" ht="13">
       <c r="A12" s="1"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1028,6 +1093,18 @@
     </row>
     <row r="13" spans="1:31" ht="13">
       <c r="A13" s="1"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1046,6 +1123,18 @@
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1064,6 +1153,18 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1082,15 +1183,18 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="4"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1111,15 +1215,18 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="4"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1140,15 +1247,18 @@
     </row>
     <row r="18" spans="1:31" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1170,18 +1280,18 @@
     <row r="19" spans="1:31" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1203,18 +1313,18 @@
     <row r="20" spans="1:31" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -33574,13 +33684,14 @@
       <c r="AE1000" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="C9:N20"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="P3:U3"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
